--- a/pred_ohlcv/54_21/2019-10-20 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-20 TRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-380077.2459903801</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-380077.2459903801</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-380022.2459903801</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-380022.2459903801</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-380022.2459903801</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-426361.5706903801</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-344659.8389903801</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-446032.4725903801</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-407730.6023903801</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-357632.90229038</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-264955.73239038</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-267086.14239038</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-265086.14239038</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-444484.19539038</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-444534.19539038</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-436834.65759038</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-288114.01419038</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-288114.01419038</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-920077.08229038</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-942099.22689038</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-942099.22689038</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-767966.70689038</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-767966.70689038</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-767966.70689038</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-335095.29607957</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-267508.26917957</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-267508.26917957</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-379751.88797957</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-379751.88797957</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-427661.75557957</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-429206.08557957</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-418336.52036218</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-419881.4403621799</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-419881.4403621799</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-419346.68106218</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-420453.58536218</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-407960.1069621799</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-58767.67696217995</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-58767.67696217995</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1151002.79226218</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1121002.79226218</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1471002.79226218</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1435878.46826218</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1524818.19366218</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1523184.67726218</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1523184.67726218</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1524639.53726218</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1568649.673662181</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1568649.673662181</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1568649.673662181</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1568649.673662181</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1568649.673662181</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1571654.893662181</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1568995.60216218</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1229631.106986481</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1296984.356986481</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1304970.00128648</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1228670.00128648</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1228670.00128648</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1228670.00128648</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1229439.21998648</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1212864.63438648</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1268892.21438648</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1268892.21438648</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-20 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-20 TRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-380077.2459903801</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-380022.2459903801</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-380022.2459903801</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-380022.2459903801</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-426361.5706903801</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-344659.8389903801</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-446032.4725903801</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-446032.4725903801</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-407730.6023903801</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-357632.90229038</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-357632.90229038</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-264955.73239038</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-267086.14239038</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-267086.14239038</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-267086.14239038</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-267086.14239038</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-265086.14239038</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-444484.19539038</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-444534.19539038</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-436834.65759038</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-436834.65759038</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-436834.65759038</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-436834.65759038</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-455872.43809038</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-288114.01419038</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-288114.01419038</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-920077.08229038</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-942099.22689038</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-942099.22689038</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-767966.70689038</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-767966.70689038</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-767966.70689038</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-335095.29607957</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-267508.26917957</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-267508.26917957</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-379751.88797957</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-379751.88797957</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-427661.75557957</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-429206.08557957</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-418336.52036218</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-419881.4403621799</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-419881.4403621799</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-419346.68106218</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-420453.58536218</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-407960.1069621799</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-58767.67696217995</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-58767.67696217995</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1151002.79226218</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1121002.79226218</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1471002.79226218</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1435878.46826218</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1524818.19366218</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1523184.67726218</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1523184.67726218</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1524639.53726218</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1568649.673662181</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1568649.673662181</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1568649.673662181</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1568649.673662181</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1568649.673662181</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1571654.893662181</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1573995.60216218</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1568995.60216218</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1354471.52153788</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1229631.106986481</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1296984.356986481</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1304970.00128648</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1228670.00128648</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1228670.00128648</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1228670.00128648</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1229439.21998648</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1212864.63438648</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1268892.21438648</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1268892.21438648</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
